--- a/output_data/charts/shares-Fayette.xlsx
+++ b/output_data/charts/shares-Fayette.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Construction</t>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Trade, transportation, and utilities</t>
+  </si>
+  <si>
+    <t>Public administration</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Natural resources and mining</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Leisure and hospitality</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
   </si>
   <si>
     <t>Education and health services</t>
   </si>
   <si>
-    <t>Financial activities</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Leisure and hospitality</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Natural resources and mining</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration</t>
-  </si>
-  <si>
-    <t>Trade, transportation, and utilities</t>
-  </si>
-  <si>
-    <t>Unclassified</t>
+    <t>Construction</t>
   </si>
   <si>
     <t>Year</t>
@@ -169,14 +169,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Construction</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1F77B4"/>
+              <a:srgbClr val="68AFFC"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -212,20 +212,11 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.605210453882969</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.357084800922737</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.399241348154648</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.72544711267099</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.963031768026941</c:v>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04644247079960034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,14 +231,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Education and health services</c:v>
+                  <c:v>Trade, transportation, and utilities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F0E"/>
+              <a:srgbClr val="4233A6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -284,19 +275,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>18.34974295180153</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19.39853698230673</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20.04741584979819</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>18.98249973508321</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>18.4469626686568</c:v>
+                  <c:v>37.89317763408589</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.83979048224639</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.95590329548892</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.28191637022958</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.57198589864893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,14 +302,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Financial activities</c:v>
+                  <c:v>Public administration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="2CA02C"/>
+              <a:srgbClr val="85E5DD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -355,19 +346,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.764049835090717</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.968752822226655</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.029397820178243</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.998661182437321</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.266394205011207</c:v>
+                  <c:v>2.875315847148386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.205996568304879</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.470839234951826</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.327914353277595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.139513265636859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,14 +373,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Information</c:v>
+                  <c:v>Professional and business services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="D62728"/>
+              <a:srgbClr val="2A6866"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -426,19 +417,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.3572362342451978</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.30705315638765</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.2750118404046781</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.2773262380082226</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3808285405047073</c:v>
+                  <c:v>5.17556853581944</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.741262520747966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.352773806197757</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.991871466858145</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.461638494043399</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,14 +444,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leisure and hospitality</c:v>
+                  <c:v>Other services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9467BD"/>
+              <a:srgbClr val="66DE78"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -497,19 +488,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>10.95233945413795</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>11.33387519217642</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.60218113532374</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.99741798254191</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.75608397296303</c:v>
+                  <c:v>1.568354098444573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.715885487261764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.735419631273921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.075164958444865</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.136355193248264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,14 +515,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manufacturing</c:v>
+                  <c:v>Natural resources and mining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8C564B"/>
+              <a:srgbClr val="15974D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -568,19 +559,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>15.39600939973092</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.9667660077832</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.88003794353869</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>17.07946827549553</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.5303734048309</c:v>
+                  <c:v>1.062995555612427</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.164995979635621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25177809468938</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.262312324952634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.300390117629378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,14 +586,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Natural resources and mining</c:v>
+                  <c:v>Manufacturing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E377C2"/>
+              <a:srgbClr val="B4D170"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -639,19 +630,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.062995555612427</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.164995979635621</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.25177809468938</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.262312324952634</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.300390117629378</c:v>
+                  <c:v>15.39600939973092</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.9667660077832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.88003794353869</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.07946827549553</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.5303734048309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,14 +657,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other services</c:v>
+                  <c:v>Leisure and hospitality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7F7F7F"/>
+              <a:srgbClr val="683C00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -710,19 +701,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.568354098444573</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.715885487261764</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.735419631273921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.075164958444865</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.136355193248264</c:v>
+                  <c:v>10.95233945413795</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.33387519217642</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.60218113532374</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.99741798254191</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.75608397296303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,14 +728,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Professional and business services</c:v>
+                  <c:v>Information</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="BCBD22"/>
+              <a:srgbClr val="CA7E54"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -781,19 +772,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.17556853581944</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.741262520747966</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.352773806197757</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.991871466858145</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.461638494043399</c:v>
+                  <c:v>0.3572362342451978</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30705315638765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2750118404046781</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2773262380082226</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3808285405047073</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,14 +799,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Public administration</c:v>
+                  <c:v>Financial activities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="17BECF"/>
+              <a:srgbClr val="821F48"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -852,19 +843,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.875315847148386</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.205996568304879</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.470839234951826</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.327914353277595</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.139513265636859</c:v>
+                  <c:v>3.764049835090717</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.968752822226655</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.029397820178243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.998661182437321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.266394205011207</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,14 +870,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trade, transportation, and utilities</c:v>
+                  <c:v>Education and health services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8DD3C7"/>
+              <a:srgbClr val="F65B68"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -923,19 +914,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>37.89317763408589</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>37.83979048224639</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.95590329548892</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>36.28191637022958</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>37.57198589864893</c:v>
+                  <c:v>18.34974295180153</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.39853698230673</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20.04741584979819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.98249973508321</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.4469626686568</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,14 +941,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unclassified</c:v>
+                  <c:v>Construction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFFB3"/>
+              <a:srgbClr val="EBCECB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -993,11 +984,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.04644247079960034</c:v>
+                <c:pt idx="0">
+                  <c:v>2.605210453882969</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.357084800922737</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.399241348154648</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.72544711267099</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.963031768026941</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1042,7 +1042,6 @@
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1114,15 +1113,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1436,19 +1435,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1496,114 +1483,114 @@
       <c r="A2" s="2">
         <v>2018</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
+        <v>37.89317763408589</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.875315847148386</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.17556853581944</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.568354098444573</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.062995555612427</v>
+      </c>
+      <c r="H2" s="1">
+        <v>15.39600939973092</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10.95233945413795</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.3572362342451978</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3.764049835090717</v>
+      </c>
+      <c r="L2" s="1">
+        <v>18.34974295180153</v>
+      </c>
+      <c r="M2" s="1">
         <v>2.605210453882969</v>
-      </c>
-      <c r="C2" s="1">
-        <v>18.34974295180153</v>
-      </c>
-      <c r="D2" s="1">
-        <v>3.764049835090717</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.3572362342451978</v>
-      </c>
-      <c r="F2" s="1">
-        <v>10.95233945413795</v>
-      </c>
-      <c r="G2" s="1">
-        <v>15.39600939973092</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1.062995555612427</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.568354098444573</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5.17556853581944</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2.875315847148386</v>
-      </c>
-      <c r="L2" s="1">
-        <v>37.89317763408589</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>2019</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
+        <v>37.83979048224639</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3.205996568304879</v>
+      </c>
+      <c r="E3" s="1">
+        <v>4.741262520747966</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.715885487261764</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.164995979635621</v>
+      </c>
+      <c r="H3" s="1">
+        <v>15.9667660077832</v>
+      </c>
+      <c r="I3" s="1">
+        <v>11.33387519217642</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.30705315638765</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1.968752822226655</v>
+      </c>
+      <c r="L3" s="1">
+        <v>19.39853698230673</v>
+      </c>
+      <c r="M3" s="1">
         <v>2.357084800922737</v>
-      </c>
-      <c r="C3" s="1">
-        <v>19.39853698230673</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1.968752822226655</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.30705315638765</v>
-      </c>
-      <c r="F3" s="1">
-        <v>11.33387519217642</v>
-      </c>
-      <c r="G3" s="1">
-        <v>15.9667660077832</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1.164995979635621</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.715885487261764</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4.741262520747966</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3.205996568304879</v>
-      </c>
-      <c r="L3" s="1">
-        <v>37.83979048224639</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="2">
         <v>2020</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C4" s="1">
+        <v>36.95590329548892</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.470839234951826</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.352773806197757</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.735419631273921</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.25177809468938</v>
+      </c>
+      <c r="H4" s="1">
+        <v>16.88003794353869</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10.60218113532374</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.2750118404046781</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.029397820178243</v>
+      </c>
+      <c r="L4" s="1">
+        <v>20.04741584979819</v>
+      </c>
+      <c r="M4" s="1">
         <v>2.399241348154648</v>
-      </c>
-      <c r="C4" s="1">
-        <v>20.04741584979819</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.029397820178243</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.2750118404046781</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10.60218113532374</v>
-      </c>
-      <c r="G4" s="1">
-        <v>16.88003794353869</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1.25177809468938</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.735419631273921</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4.352773806197757</v>
-      </c>
-      <c r="K4" s="1">
-        <v>3.470839234951826</v>
-      </c>
-      <c r="L4" s="1">
-        <v>36.95590329548892</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1611,40 +1598,40 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>36.28191637022958</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.327914353277595</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.991871466858145</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2.075164958444865</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1.262312324952634</v>
+      </c>
+      <c r="H5" s="1">
+        <v>17.07946827549553</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10.99741798254191</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.2773262380082226</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1.998661182437321</v>
+      </c>
+      <c r="L5" s="1">
+        <v>18.98249973508321</v>
+      </c>
+      <c r="M5" s="1">
         <v>2.72544711267099</v>
-      </c>
-      <c r="C5" s="1">
-        <v>18.98249973508321</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.998661182437321</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.2773262380082226</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10.99741798254191</v>
-      </c>
-      <c r="G5" s="1">
-        <v>17.07946827549553</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.262312324952634</v>
-      </c>
-      <c r="I5" s="1">
-        <v>2.075164958444865</v>
-      </c>
-      <c r="J5" s="1">
-        <v>4.991871466858145</v>
-      </c>
-      <c r="K5" s="1">
-        <v>3.327914353277595</v>
-      </c>
-      <c r="L5" s="1">
-        <v>36.28191637022958</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1652,40 +1639,40 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1">
+        <v>0.04644247079960034</v>
+      </c>
+      <c r="C6" s="1">
+        <v>37.57198589864893</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3.139513265636859</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.461638494043399</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2.136355193248264</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.300390117629378</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15.5303734048309</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10.75608397296303</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.3808285405047073</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.266394205011207</v>
+      </c>
+      <c r="L6" s="1">
+        <v>18.4469626686568</v>
+      </c>
+      <c r="M6" s="1">
         <v>2.963031768026941</v>
-      </c>
-      <c r="C6" s="1">
-        <v>18.4469626686568</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.266394205011207</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.3808285405047073</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10.75608397296303</v>
-      </c>
-      <c r="G6" s="1">
-        <v>15.5303734048309</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.300390117629378</v>
-      </c>
-      <c r="I6" s="1">
-        <v>2.136355193248264</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5.461638494043399</v>
-      </c>
-      <c r="K6" s="1">
-        <v>3.139513265636859</v>
-      </c>
-      <c r="L6" s="1">
-        <v>37.57198589864893</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.04644247079960034</v>
       </c>
     </row>
   </sheetData>
